--- a/studentdetails.xlsx
+++ b/studentdetails.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\visru\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30cb049c94ec2938/Desktop/Projects/MINIProject/backendexp/miniproject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFDEB7E-903F-440F-B84F-5E607C2F805A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{5AFDEB7E-903F-440F-B84F-5E607C2F805A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96E8CF3B-A3F4-4EAF-A3D9-0D7C393C17E7}"/>
   <bookViews>
-    <workbookView xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="9960" xr2:uid="{4EE5A6EB-AF8B-4E33-A8F4-8D0044564DAE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4EE5A6EB-AF8B-4E33-A8F4-8D0044564DAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>rollnumber</t>
   </si>
@@ -57,43 +57,34 @@
     <t>appliedJobs</t>
   </si>
   <si>
-    <t>33b4</t>
-  </si>
-  <si>
-    <t>varu</t>
-  </si>
-  <si>
-    <t>csit</t>
-  </si>
-  <si>
-    <t>MERN</t>
-  </si>
-  <si>
-    <t>123456, 100, 2</t>
-  </si>
-  <si>
-    <t>chelsi</t>
-  </si>
-  <si>
-    <t>shulamite</t>
-  </si>
-  <si>
     <t>mern</t>
   </si>
   <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>33b7</t>
-  </si>
-  <si>
-    <t>ashwin</t>
-  </si>
-  <si>
-    <t>prat</t>
-  </si>
-  <si>
-    <t>prathyusha_blj</t>
+    <t>z</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>cse</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -161,9 +152,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -201,7 +192,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -307,7 +298,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -449,7 +440,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -457,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D52FAF5C-F857-4A9F-8CC9-28E4803CC05D}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -498,118 +489,164 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
+      <c r="A2" s="1">
+        <v>101</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2">
-        <v>10</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>3369</v>
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="1">
-        <v>9.1</v>
+        <v>7</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9.1999999999999993</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>103</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="1">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>3367</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3367</v>
+        <v>104</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="F5" s="2">
+        <v>9.1999999999999993</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>3379</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>106</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>107</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
